--- a/sample_U_I.xlsx
+++ b/sample_U_I.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="261">
   <si>
     <t>检测项目</t>
   </si>
@@ -3363,7 +3363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -3399,9 +3399,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3429,8 +3426,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3438,14 +3444,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3459,16 +3468,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3477,13 +3483,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3491,33 +3500,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -3553,6 +3535,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3858,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3869,163 +3878,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -4045,8 +4054,8 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -4066,8 +4075,8 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -4087,8 +4096,8 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -4108,8 +4117,8 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -4129,8 +4138,8 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -4150,8 +4159,8 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -4171,8 +4180,8 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -4192,26 +4201,44 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A7:B7"/>
@@ -4228,24 +4255,6 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4268,27 +4277,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
@@ -4309,11 +4318,11 @@
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
@@ -4330,11 +4339,11 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
@@ -4351,11 +4360,11 @@
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
@@ -4372,11 +4381,11 @@
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
@@ -4393,11 +4402,11 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
@@ -4414,11 +4423,11 @@
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -4435,11 +4444,11 @@
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
@@ -4456,11 +4465,11 @@
       <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
@@ -4474,17 +4483,17 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="10" t="s">
         <v>118</v>
       </c>
@@ -4530,27 +4539,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>55</v>
       </c>
@@ -4571,11 +4580,11 @@
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
@@ -4592,11 +4601,11 @@
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
@@ -4613,11 +4622,11 @@
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
@@ -4634,11 +4643,11 @@
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
@@ -4655,11 +4664,11 @@
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
@@ -4676,11 +4685,11 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
@@ -4697,11 +4706,11 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
@@ -4718,11 +4727,11 @@
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
@@ -4739,11 +4748,11 @@
       <c r="A11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
@@ -4760,11 +4769,11 @@
       <c r="A12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
@@ -4781,11 +4790,11 @@
       <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4802,11 +4811,11 @@
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4823,11 +4832,11 @@
       <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
@@ -4844,11 +4853,11 @@
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
@@ -4865,11 +4874,11 @@
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
@@ -4886,11 +4895,11 @@
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
@@ -4907,11 +4916,11 @@
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -4928,11 +4937,11 @@
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
@@ -4949,11 +4958,11 @@
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
@@ -4970,11 +4979,11 @@
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
@@ -4991,11 +5000,11 @@
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4" t="s">
         <v>76</v>
       </c>
@@ -5012,11 +5021,11 @@
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
@@ -5033,11 +5042,11 @@
       <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="4" t="s">
         <v>77</v>
       </c>
@@ -5054,11 +5063,11 @@
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4" t="s">
         <v>78</v>
       </c>
@@ -5072,37 +5081,24 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="H27:I27"/>
@@ -5119,6 +5115,19 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5144,29 +5153,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="9" t="s">
         <v>113</v>
       </c>
@@ -5187,12 +5196,12 @@
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="4" t="s">
         <v>226</v>
       </c>
@@ -5209,12 +5218,12 @@
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="4" t="s">
         <v>227</v>
       </c>
@@ -5231,12 +5240,12 @@
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="4" t="s">
         <v>228</v>
       </c>
@@ -5253,12 +5262,12 @@
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="4" t="s">
         <v>229</v>
       </c>
@@ -5272,90 +5281,90 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -5377,9 +5386,9 @@
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
         <v>128</v>
       </c>
@@ -5399,9 +5408,9 @@
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="4" t="s">
         <v>130</v>
       </c>
@@ -5421,13 +5430,13 @@
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -5449,9 +5458,9 @@
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4" t="s">
         <v>128</v>
       </c>
@@ -5471,9 +5480,9 @@
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="4" t="s">
         <v>130</v>
       </c>
@@ -5493,13 +5502,13 @@
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -5521,9 +5530,9 @@
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
@@ -5543,9 +5552,9 @@
       <c r="A21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4" t="s">
         <v>130</v>
       </c>
@@ -5562,17 +5571,17 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="30"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="10" t="s">
         <v>118</v>
       </c>
@@ -5581,74 +5590,74 @@
       <c r="A23" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="34" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -5670,9 +5679,9 @@
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="7" t="s">
         <v>128</v>
       </c>
@@ -5692,9 +5701,9 @@
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="7" t="s">
         <v>130</v>
       </c>
@@ -5711,56 +5720,23 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="10" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
@@ -5777,6 +5753,39 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5807,82 +5816,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
@@ -5890,131 +5899,131 @@
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="7"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="34" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="29" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -6029,14 +6038,14 @@
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="7" t="s">
         <v>157</v>
       </c>
@@ -6049,14 +6058,14 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="7" t="s">
         <v>158</v>
       </c>
@@ -6069,14 +6078,14 @@
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="7" t="s">
         <v>159</v>
       </c>
@@ -6089,14 +6098,14 @@
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="7" t="s">
         <v>160</v>
       </c>
@@ -6109,14 +6118,14 @@
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="7" t="s">
         <v>161</v>
       </c>
@@ -6126,45 +6135,45 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="38" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="29" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="29" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -6179,14 +6188,14 @@
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="7" t="s">
         <v>157</v>
       </c>
@@ -6199,14 +6208,14 @@
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="7" t="s">
         <v>158</v>
       </c>
@@ -6219,14 +6228,14 @@
       <c r="A21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="7" t="s">
         <v>159</v>
       </c>
@@ -6239,14 +6248,14 @@
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="7">
         <v>4</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="7" t="s">
         <v>160</v>
       </c>
@@ -6259,14 +6268,14 @@
       <c r="A23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="7" t="s">
         <v>161</v>
       </c>
@@ -6276,45 +6285,45 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="38" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="29" t="s">
         <v>79</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -6329,14 +6338,14 @@
       <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="7" t="s">
         <v>157</v>
       </c>
@@ -6349,14 +6358,14 @@
       <c r="A27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="7">
         <v>2</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="7" t="s">
         <v>158</v>
       </c>
@@ -6369,14 +6378,14 @@
       <c r="A28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="7">
         <v>3</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="7" t="s">
         <v>159</v>
       </c>
@@ -6389,14 +6398,14 @@
       <c r="A29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="7">
         <v>4</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="7" t="s">
         <v>160</v>
       </c>
@@ -6409,14 +6418,14 @@
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="7">
         <v>5</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="7" t="s">
         <v>161</v>
       </c>
@@ -6426,59 +6435,80 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="14" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C11:C16"/>
@@ -6495,39 +6525,18 @@
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="B18:B24"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G2:J3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6539,8 +6548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L12" sqref="K4:L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6553,29 +6562,30 @@
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="7.875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="27" customWidth="1"/>
+    <col min="12" max="12" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6584,860 +6594,892 @@
       <c r="D2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="28" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="6" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="27"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="27"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="7">
-        <v>3.9769999999999999</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="34" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="19">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="18">
         <v>1</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="19">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="18">
         <v>2</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="19">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="18">
         <v>3</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="19" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="19">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="18">
         <v>4</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="19" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="19">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="18">
         <v>5</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="19" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="38" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="19">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="18">
         <v>1</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="19" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="19">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="18">
         <v>2</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="19" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="19">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="18">
         <v>3</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="19" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="19">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="18">
         <v>4</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="19" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="19">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="18">
         <v>5</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="19" t="s">
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>14</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>0</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="19">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="19" t="s">
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="19">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="18">
         <v>2</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="19" t="s">
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="19">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="18">
         <v>3</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="19" t="s">
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="19">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="18">
         <v>4</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="19" t="s">
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="19">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="18">
         <v>5</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="19" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>21</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="38" t="s">
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
@@ -7454,57 +7496,25 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7523,72 +7533,72 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="45" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="10" t="s">
         <v>200</v>
       </c>
@@ -7630,192 +7640,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/sample_U_I.xlsx
+++ b/sample_U_I.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,30 +801,6 @@
     <t>21  </t>
   </si>
   <si>
-    <r>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10k</t>
-    </r>
-  </si>
-  <si>
     <t>22  </t>
   </si>
   <si>
@@ -3006,6 +2982,31 @@
   </si>
   <si>
     <t>是否合格是√，否×</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10k</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3363,7 +3364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -3438,23 +3439,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3468,13 +3472,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3483,16 +3490,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3867,7 +3871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -3878,105 +3882,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="A1" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="31"/>
+      <c r="D7" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="34"/>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -3986,55 +3990,55 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -4054,8 +4058,8 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -4075,8 +4079,8 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -4096,8 +4100,8 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -4117,8 +4121,8 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -4138,8 +4142,8 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -4159,8 +4163,8 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -4180,8 +4184,8 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -4201,19 +4205,19 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="30"/>
+      <c r="A20" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="33"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="14"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -4221,24 +4225,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H16:I16"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A7:B7"/>
@@ -4255,6 +4241,24 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4266,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
@@ -4277,27 +4281,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
@@ -4318,11 +4322,11 @@
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
@@ -4339,11 +4343,11 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
@@ -4360,11 +4364,11 @@
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
@@ -4381,11 +4385,11 @@
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
@@ -4402,11 +4406,11 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
@@ -4423,11 +4427,11 @@
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -4444,11 +4448,11 @@
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
@@ -4465,11 +4469,11 @@
       <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
@@ -4484,18 +4488,18 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>190</v>
+      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="32"/>
       <c r="H11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -4527,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4539,27 +4543,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="5" t="s">
         <v>55</v>
       </c>
@@ -4580,11 +4584,11 @@
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
@@ -4601,11 +4605,11 @@
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
@@ -4622,11 +4626,11 @@
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
@@ -4643,11 +4647,11 @@
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
@@ -4664,11 +4668,11 @@
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
@@ -4685,11 +4689,11 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
@@ -4706,11 +4710,11 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
@@ -4727,11 +4731,11 @@
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
@@ -4748,11 +4752,11 @@
       <c r="A11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
@@ -4769,11 +4773,11 @@
       <c r="A12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
@@ -4790,11 +4794,11 @@
       <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4811,11 +4815,11 @@
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4832,11 +4836,11 @@
       <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
@@ -4853,11 +4857,11 @@
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
@@ -4874,11 +4878,11 @@
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
@@ -4895,11 +4899,11 @@
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
@@ -4916,11 +4920,11 @@
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -4937,11 +4941,11 @@
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
@@ -4958,11 +4962,11 @@
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
@@ -4979,11 +4983,11 @@
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
@@ -5000,11 +5004,11 @@
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="4" t="s">
         <v>76</v>
       </c>
@@ -5012,20 +5016,20 @@
         <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
@@ -5040,65 +5044,78 @@
     </row>
     <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>96</v>
+      <c r="G25" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>96</v>
+      <c r="G26" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="H27:I27"/>
@@ -5115,19 +5132,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5153,63 +5157,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="A1" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -5218,20 +5222,20 @@
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -5240,20 +5244,20 @@
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -5262,122 +5266,122 @@
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="F11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>108</v>
+      <c r="J11" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5386,20 +5390,20 @@
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5408,20 +5412,20 @@
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5430,26 +5434,26 @@
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5458,20 +5462,20 @@
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5480,20 +5484,20 @@
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5502,26 +5506,26 @@
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5530,20 +5534,20 @@
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5552,125 +5556,125 @@
       <c r="A21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="39"/>
-      <c r="G22" s="31"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="A25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="D26" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="E26" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="F26" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>260</v>
+      <c r="J26" s="35" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="35"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -5679,20 +5683,20 @@
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -5701,42 +5705,75 @@
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="A31" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="39"/>
-      <c r="G31" s="31"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
@@ -5753,39 +5790,6 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5816,82 +5820,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
@@ -5899,135 +5903,135 @@
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="7"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="K6" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="A8" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="E9" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="28" t="s">
+      <c r="L9" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="35"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="46"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -6038,16 +6042,16 @@
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -6058,16 +6062,16 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -6078,16 +6082,16 @@
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -6098,16 +6102,16 @@
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -6118,16 +6122,16 @@
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -6138,46 +6142,46 @@
       <c r="A17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="31" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -6188,16 +6192,16 @@
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -6208,16 +6212,16 @@
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -6228,16 +6232,16 @@
       <c r="A21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -6248,16 +6252,16 @@
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="7">
         <v>4</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -6268,16 +6272,16 @@
       <c r="A23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -6288,46 +6292,46 @@
       <c r="A24" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>79</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -6338,16 +6342,16 @@
       <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -6358,16 +6362,16 @@
       <c r="A27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="7">
         <v>2</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -6378,16 +6382,16 @@
       <c r="A28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="7">
         <v>3</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -6398,16 +6402,16 @@
       <c r="A29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="7">
         <v>4</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -6418,16 +6422,16 @@
       <c r="A30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="7">
         <v>5</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -6436,46 +6440,91 @@
     </row>
     <row r="31" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="44" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
@@ -6492,51 +6541,6 @@
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="F11:F16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G2:J3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6548,8 +6552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6567,98 +6571,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>119</v>
+      <c r="B2" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -6667,22 +6671,22 @@
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -6691,22 +6695,22 @@
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -6715,28 +6719,28 @@
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -6745,22 +6749,22 @@
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -6769,22 +6773,22 @@
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -6793,28 +6797,28 @@
       <c r="A10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -6823,22 +6827,22 @@
       <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -6847,137 +6851,137 @@
       <c r="A12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="31"/>
+      <c r="A13" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="34"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+        <v>188</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="A15" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>181</v>
+      <c r="E16" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="F16" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="H16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="I16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="K16" s="29" t="s">
+      <c r="J16" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="L16" s="34" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="46"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -6988,16 +6992,16 @@
       <c r="A19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="18">
         <v>1</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -7008,16 +7012,16 @@
       <c r="A20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="18">
         <v>2</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -7028,16 +7032,16 @@
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="18">
         <v>3</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -7048,16 +7052,16 @@
       <c r="A22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="18">
         <v>4</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -7068,16 +7072,16 @@
       <c r="A23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="18">
         <v>5</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -7086,48 +7090,48 @@
     </row>
     <row r="24" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="31" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>79</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -7138,16 +7142,16 @@
       <c r="A26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="18">
         <v>1</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -7158,16 +7162,16 @@
       <c r="A27" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="18">
         <v>2</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -7178,16 +7182,16 @@
       <c r="A28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="18">
         <v>3</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -7198,16 +7202,16 @@
       <c r="A29" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="18">
         <v>4</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -7218,16 +7222,16 @@
       <c r="A30" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="18">
         <v>5</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -7238,46 +7242,46 @@
       <c r="A31" s="18">
         <v>14</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="18">
         <v>0</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="31" t="s">
         <v>79</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -7288,16 +7292,16 @@
       <c r="A33" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -7308,16 +7312,16 @@
       <c r="A34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="18">
         <v>2</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -7328,16 +7332,16 @@
       <c r="A35" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="18">
         <v>3</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -7348,16 +7352,16 @@
       <c r="A36" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="18">
         <v>4</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -7368,16 +7372,16 @@
       <c r="A37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="18">
         <v>5</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -7388,55 +7392,109 @@
       <c r="A38" s="18">
         <v>21</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
@@ -7453,68 +7511,14 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7533,74 +7537,74 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+        <v>184</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -7640,192 +7644,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+        <v>235</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+        <v>236</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+        <v>237</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+        <v>238</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+        <v>241</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
+        <v>242</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+        <v>243</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>253</v>
-      </c>
       <c r="C14" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>255</v>
-      </c>
       <c r="C15" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
     </row>
     <row r="21" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
